--- a/class_schedule/v1.0/课程表.xlsx
+++ b/class_schedule/v1.0/课程表.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\课程表\v1.0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\GitHub\class_schedule\class_schedule\v1.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5581E69-39D1-43EA-9A50-664FBD41B080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED7FC664-F12B-4D1C-83F7-4C01C81D29F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{341DB468-5008-49D8-B65E-4209106DA98A}"/>
   </bookViews>
@@ -41,9 +41,6 @@
     <t>Monday</t>
   </si>
   <si>
-    <t>Tuseday</t>
-  </si>
-  <si>
     <t>Wednesday</t>
   </si>
   <si>
@@ -147,6 +144,10 @@
   </si>
   <si>
     <t>Period</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tuesday</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -618,250 +619,250 @@
   <sheetData>
     <row r="1" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>4</v>
-      </c>
       <c r="G1" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="D5" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="E9" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="E10" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="E11" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="6"/>
